--- a/doc/Навыки.xlsx
+++ b/doc/Навыки.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Расы" sheetId="1" state="visible" r:id="rId2"/>
@@ -99,207 +99,210 @@
     <t>Жизнеобеспечение</t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>1 юнит за период или 5 юнитов за ход</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Построенное на звездолете, увеличивает его вместимость до 10-ти юнитов</t>
+  </si>
+  <si>
+    <t>Бомба</t>
+  </si>
+  <si>
+    <t>20р</t>
+  </si>
+  <si>
+    <t>5 юнитов за период</t>
+  </si>
+  <si>
+    <t>Построенное на звездолете, позволяет ему взорваться за ход вместе со всеми объектами в его секторе, включая планеты</t>
+  </si>
+  <si>
+    <t>Физическая линейка  основная</t>
+  </si>
+  <si>
+    <t>Краткое описание навыка</t>
+  </si>
+  <si>
+    <t>Комментарий 1</t>
+  </si>
+  <si>
+    <t>Комментарий 2</t>
+  </si>
+  <si>
+    <t>Комментарий 3</t>
+  </si>
+  <si>
+    <t>Здоровье</t>
+  </si>
+  <si>
+    <t>Увеличивает max здоровье до 2</t>
+  </si>
+  <si>
+    <t>Ловкость</t>
+  </si>
+  <si>
+    <t>Увеличивает ловкость до 2</t>
+  </si>
+  <si>
+    <t>Дальность передвижения юнита = 2*ловкость</t>
+  </si>
+  <si>
+    <t>Ловкие юниты ходят раньше</t>
+  </si>
+  <si>
+    <t>Сила</t>
+  </si>
+  <si>
+    <t>Увеличивает силу до 2</t>
+  </si>
+  <si>
+    <t>Урон юнита в рукопашной = его силе</t>
+  </si>
+  <si>
+    <t>Юнит поднимает без штрафа к ловкости вес &lt;= его силе</t>
+  </si>
+  <si>
+    <t>За каждую единицу перевеса, ловкость юнита уменьшается на 1. Юнит с ловкостью 0 не может больше ничего поднять.</t>
+  </si>
+  <si>
+    <t>Антимагия</t>
+  </si>
+  <si>
+    <t>Дает полный иммунитет к магии</t>
+  </si>
+  <si>
+    <t>Иммунен также к магии своих юнитов</t>
+  </si>
+  <si>
+    <t>Физическая линейка дополнительная</t>
+  </si>
+  <si>
+    <t>Стрельба 1</t>
+  </si>
+  <si>
+    <t>Шанс попадания + 1/6</t>
+  </si>
+  <si>
+    <t>Стрельба 2</t>
+  </si>
+  <si>
+    <t>Стрельба 3</t>
+  </si>
+  <si>
+    <t>Стрельба 4</t>
+  </si>
+  <si>
+    <t>Магическая линейка боевая</t>
+  </si>
+  <si>
+    <t>Замешательство</t>
+  </si>
+  <si>
+    <t>Заставляет юнита пропустить миниход</t>
+  </si>
+  <si>
+    <t>Юнит свое следующее действие тратит на снятие замешательства</t>
+  </si>
+  <si>
+    <t>Может быть наложено многократно</t>
+  </si>
+  <si>
+    <t>Гипноз</t>
+  </si>
+  <si>
+    <t>Передает управление юнитом на 1 миниход</t>
+  </si>
+  <si>
+    <t>Юнит свое следующее действие делает по приказу хозяина колдуна</t>
+  </si>
+  <si>
+    <t>Молния 1</t>
+  </si>
+  <si>
+    <t>Наносит 1 общим уроном</t>
+  </si>
+  <si>
+    <t>Про виды урона см. в "Сложные моменты"</t>
+  </si>
+  <si>
+    <t>Молния 2</t>
+  </si>
+  <si>
+    <t>Наносит 2 общим уроном</t>
+  </si>
+  <si>
+    <t>Магическая линейка ритуальная</t>
+  </si>
+  <si>
+    <t>Кража молодости</t>
+  </si>
+  <si>
+    <t>Омолаживает колдуна на 1, старит цель на 1</t>
+  </si>
+  <si>
+    <t>Целью может быть только свой юнит</t>
+  </si>
+  <si>
+    <t>Целью не может быть дух или робот</t>
+  </si>
+  <si>
+    <t>Перевоплощение</t>
+  </si>
+  <si>
+    <t>Придает облик любого юнита любого возраста</t>
+  </si>
+  <si>
+    <t>Облик придается навсегда до следующего перевоплощения</t>
+  </si>
+  <si>
+    <t>Перевоспитание</t>
+  </si>
+  <si>
+    <t>Хозяин колдуна становится хозяином цели</t>
+  </si>
+  <si>
+    <t>Работает только с разрешения хозяина цели или если цель под</t>
+  </si>
+  <si>
+    <t>действием замешательства или гипноза</t>
+  </si>
+  <si>
+    <t>Телепорт</t>
+  </si>
+  <si>
+    <t>Перемещает цель в любой сектор</t>
+  </si>
+  <si>
+    <t>Репликатор</t>
+  </si>
+  <si>
+    <t>1ж+1с</t>
+  </si>
+  <si>
+    <t>Позволяет не тратить действие на рождение одного ребенка</t>
+  </si>
+  <si>
+    <t>Посох</t>
+  </si>
+  <si>
+    <t>2ж+2р</t>
+  </si>
+  <si>
+    <t>Позволяет носителю стрелять своими заклинаниями с гарантированым попаданием</t>
+  </si>
+  <si>
+    <t>Алтарь</t>
+  </si>
+  <si>
     <t>5ж</t>
   </si>
   <si>
-    <t>1 юнит за период или 5 юнитов за ход</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Построенное на звездолете, увеличивает его вместимость до 10-ти юнитов</t>
-  </si>
-  <si>
-    <t>Бомба</t>
-  </si>
-  <si>
-    <t>20р</t>
-  </si>
-  <si>
-    <t>5 юнитов за период</t>
-  </si>
-  <si>
-    <t>Построенное на звездолете, позволяет ему взорваться за ход вместе со всеми объектами в его секторе, включая планеты</t>
-  </si>
-  <si>
-    <t>Физическая линейка  основная</t>
-  </si>
-  <si>
-    <t>Краткое описание навыка</t>
-  </si>
-  <si>
-    <t>Комментарий 1</t>
-  </si>
-  <si>
-    <t>Комментарий 2</t>
-  </si>
-  <si>
-    <t>Комментарий 3</t>
-  </si>
-  <si>
-    <t>Здоровье</t>
-  </si>
-  <si>
-    <t>Увеличивает max здоровье до 2</t>
-  </si>
-  <si>
-    <t>Ловкость</t>
-  </si>
-  <si>
-    <t>Увеличивает ловкость до 2</t>
-  </si>
-  <si>
-    <t>Дальность передвижения юнита = 2*ловкость</t>
-  </si>
-  <si>
-    <t>Ловкие юниты ходят раньше</t>
-  </si>
-  <si>
-    <t>Сила</t>
-  </si>
-  <si>
-    <t>Увеличивает силу до 2</t>
-  </si>
-  <si>
-    <t>Урон юнита в рукопашной = его силе</t>
-  </si>
-  <si>
-    <t>Юнит поднимает без штрафа к ловкости вес &lt;= его силе</t>
-  </si>
-  <si>
-    <t>За каждую единицу перевеса, ловкость юнита уменьшается на 1. Юнит с ловкостью 0 не может больше ничего поднять.</t>
-  </si>
-  <si>
-    <t>Антимагия</t>
-  </si>
-  <si>
-    <t>Дает полный иммунитет к магии</t>
-  </si>
-  <si>
-    <t>Иммунен также к магии своих юнитов</t>
-  </si>
-  <si>
-    <t>Физическая линейка дополнительная</t>
-  </si>
-  <si>
-    <t>Стрельба 1</t>
-  </si>
-  <si>
-    <t>Шанс попадания + 1/6</t>
-  </si>
-  <si>
-    <t>Стрельба 2</t>
-  </si>
-  <si>
-    <t>Стрельба 3</t>
-  </si>
-  <si>
-    <t>Стрельба 4</t>
-  </si>
-  <si>
-    <t>Магическая линейка боевая</t>
-  </si>
-  <si>
-    <t>Замешательство</t>
-  </si>
-  <si>
-    <t>Заставляет юнита пропустить миниход</t>
-  </si>
-  <si>
-    <t>Юнит свое следующее действие тратит на снятие замешательства</t>
-  </si>
-  <si>
-    <t>Может быть наложено многократно</t>
-  </si>
-  <si>
-    <t>Гипноз</t>
-  </si>
-  <si>
-    <t>Передает управление юнитом на 1 миниход</t>
-  </si>
-  <si>
-    <t>Юнит свое следующее действие делает по приказу хозяина колдуна</t>
-  </si>
-  <si>
-    <t>Молния 1</t>
-  </si>
-  <si>
-    <t>Наносит 1 общим уроном</t>
-  </si>
-  <si>
-    <t>Про виды урона см. в "Сложные моменты"</t>
-  </si>
-  <si>
-    <t>Молния 2</t>
-  </si>
-  <si>
-    <t>Наносит 2 общим уроном</t>
-  </si>
-  <si>
-    <t>Магическая линейка ритуальная</t>
-  </si>
-  <si>
-    <t>Кража молодости</t>
-  </si>
-  <si>
-    <t>Омолаживает колдуна на 1, старит цель на 1</t>
-  </si>
-  <si>
-    <t>Целью может быть только свой юнит</t>
-  </si>
-  <si>
-    <t>Целью не может быть дух или робот</t>
-  </si>
-  <si>
-    <t>Перевоплощение</t>
-  </si>
-  <si>
-    <t>Придает облик любого юнита любого возраста</t>
-  </si>
-  <si>
-    <t>Облик придается навсегда до следующего перевоплощения</t>
-  </si>
-  <si>
-    <t>Перевоспитание</t>
-  </si>
-  <si>
-    <t>Хозяин колдуна становится хозяином цели</t>
-  </si>
-  <si>
-    <t>Работает только с разрешения хозяина цели или если цель под</t>
-  </si>
-  <si>
-    <t>действием замешательства или гипноза</t>
-  </si>
-  <si>
-    <t>Телепорт</t>
-  </si>
-  <si>
-    <t>Перемещает цель в любой сектор</t>
-  </si>
-  <si>
-    <t>Репликатор</t>
-  </si>
-  <si>
-    <t>1ж+1с</t>
-  </si>
-  <si>
-    <t>Позволяет не тратить действие на рождение одного ребенка</t>
-  </si>
-  <si>
-    <t>Посох</t>
-  </si>
-  <si>
-    <t>2ж+2р</t>
-  </si>
-  <si>
-    <t>Позволяет носителю стрелять своими заклинаниями с гарантированым попаданием</t>
-  </si>
-  <si>
-    <t>Алтарь</t>
-  </si>
-  <si>
     <t>Построенный на планете, позволяет юнитам на ней колдовать ритуальные заклинания за ход</t>
   </si>
   <si>
@@ -507,9 +510,6 @@
     <t>4с</t>
   </si>
   <si>
-    <t>1 юнит за период</t>
-  </si>
-  <si>
     <t>Рождает робота</t>
   </si>
   <si>
@@ -523,7 +523,7 @@
   </si>
   <si>
     <r>
-      <t>Вред наносит только</t>
+      <t>Вред наносит только </t>
     </r>
     <r>
       <rPr>
@@ -532,7 +532,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>расщепляющий</t>
+      <t>расщепляющий </t>
     </r>
     <r>
       <rPr>
@@ -565,7 +565,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -587,6 +587,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -673,7 +679,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -703,6 +709,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -786,7 +796,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -914,7 +924,7 @@
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1143,8 +1153,8 @@
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1346,7 +1356,7 @@
         <v>91</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>26</v>
@@ -1355,15 +1365,15 @@
         <v>27</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>31</v>
@@ -1372,7 +1382,7 @@
         <v>27</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1393,7 +1403,7 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1423,34 +1433,34 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,13 +1482,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>75</v>
@@ -1486,30 +1496,30 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>75</v>
@@ -1517,18 +1527,18 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>34</v>
@@ -1548,7 +1558,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1562,7 +1572,7 @@
         <v>42</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1584,13 +1594,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1611,8 +1621,8 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1652,7 +1662,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1669,15 +1679,15 @@
         <v>14</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>18</v>
@@ -1686,15 +1696,15 @@
         <v>1</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>18</v>
@@ -1703,15 +1713,15 @@
         <v>2</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>26</v>
@@ -1720,15 +1730,15 @@
         <v>27</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>26</v>
@@ -1737,7 +1747,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1782,18 +1792,18 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1808,7 +1818,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>34</v>
@@ -1842,7 +1852,7 @@
         <v>42</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1864,10 +1874,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1880,34 +1890,34 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>149</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1928,8 +1938,8 @@
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1966,10 +1976,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>18</v>
@@ -1978,15 +1988,15 @@
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>18</v>
@@ -1995,15 +2005,15 @@
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>26</v>
@@ -2012,18 +2022,18 @@
         <v>27</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="0" t="s">
         <v>161</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>27</v>
@@ -2034,7 +2044,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>34</v>
@@ -2068,7 +2078,7 @@
         <v>42</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2088,7 +2098,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>164</v>
       </c>
@@ -2207,7 +2217,7 @@
         <v>170</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>26</v>
